--- a/data/Grader_names_and_passwords.xlsx
+++ b/data/Grader_names_and_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,44 +424,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>tWalCMH5kdha+gC9dPMcmQ==</t>
+          <t>7djdfG5KJPtN/QcXNmxsRw==</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>7djdfG5KJPtN/QcXNmxsRw==</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>NnSP3Bog+wsMrC48REtN4Q==</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>7djdfG5KJPtN/QcXNmxsRw==</t>
+          <t>K9LyhEhNRb6d9qPSBm/mnQ==</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jdpp4ei9+BMdXuZxXvYMPA==</t>
+          <t>7djdfG5KJPtN/QcXNmxsRw==</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7djdfG5KJPtN/QcXNmxsRw==</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NnSP3Bog+wsMrC48REtN4Q==</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7djdfG5KJPtN/QcXNmxsRw==</t>
+          <t>qU6nYBkvGLlIiyglBAqJBtTJ8YOLQYvNebT5WscCoDs=</t>
         </is>
       </c>
     </row>

--- a/data/Grader_names_and_passwords.xlsx
+++ b/data/Grader_names_and_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,11 +427,6 @@
           <t>7djdfG5KJPtN/QcXNmxsRw==</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>K9LyhEhNRb6d9qPSBm/mnQ==</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -439,11 +434,6 @@
           <t>7djdfG5KJPtN/QcXNmxsRw==</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>qU6nYBkvGLlIiyglBAqJBtTJ8YOLQYvNebT5WscCoDs=</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
